--- a/your-project/datasets/survey_clean.xlsx
+++ b/your-project/datasets/survey_clean.xlsx
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
-  <si>
-    <t>Vaccines are important for children to have (%)</t>
-  </si>
-  <si>
-    <t>Vaccines are safe (%)</t>
-  </si>
-  <si>
-    <t>Vaccines are effective (%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+  <si>
+    <t>Vaccines are not important for children to have (%)</t>
+  </si>
+  <si>
+    <t>Vaccines are not safe (%)</t>
+  </si>
+  <si>
+    <t>Vaccines are not effective (%)</t>
+  </si>
+  <si>
+    <t>Overall Avg. (%)</t>
   </si>
   <si>
     <t>Country</t>
@@ -109,7 +112,7 @@
     <t>Comoros</t>
   </si>
   <si>
-    <t>Congo, Rep.</t>
+    <t>Congo</t>
   </si>
   <si>
     <t>Costa Rica</t>
@@ -815,15 +818,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -834,500 +837,608 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="C2">
-        <v>2.235</v>
+        <v>4.47</v>
       </c>
       <c r="D2">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.84</v>
+      </c>
+      <c r="E2">
+        <v>2.803333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.835</v>
+        <v>1.67</v>
       </c>
       <c r="C3">
-        <v>7.925</v>
+        <v>15.85</v>
       </c>
       <c r="D3">
-        <v>4.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E3">
+        <v>8.826666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="C4">
-        <v>5.640000000000001</v>
+        <v>11.28</v>
       </c>
       <c r="D4">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>7.7</v>
+      </c>
+      <c r="E4">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.605</v>
+        <v>1.21</v>
       </c>
       <c r="C5">
-        <v>2.425</v>
+        <v>4.85</v>
       </c>
       <c r="D5">
-        <v>1.475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2.95</v>
+      </c>
+      <c r="E5">
+        <v>3.003333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>6.09</v>
+        <v>12.18</v>
       </c>
       <c r="C6">
-        <v>10.285</v>
+        <v>20.57</v>
       </c>
       <c r="D6">
-        <v>6.234999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>12.47</v>
+      </c>
+      <c r="E6">
+        <v>15.07333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3.27</v>
+      </c>
+      <c r="C7">
+        <v>6.9</v>
+      </c>
+      <c r="D7">
+        <v>4.09</v>
+      </c>
+      <c r="E7">
+        <v>4.753333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>11.79</v>
+      </c>
+      <c r="C8">
+        <v>21.05</v>
+      </c>
+      <c r="D8">
+        <v>11.29</v>
+      </c>
+      <c r="E8">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>8.32</v>
+      </c>
+      <c r="C9">
+        <v>11.23</v>
+      </c>
+      <c r="D9">
+        <v>8.42</v>
+      </c>
+      <c r="E9">
+        <v>9.323333333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.45</v>
+      </c>
+      <c r="E10">
+        <v>0.5866666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>7.6</v>
+      </c>
+      <c r="C11">
+        <v>14.78</v>
+      </c>
+      <c r="D11">
+        <v>9.84</v>
+      </c>
+      <c r="E11">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>4.699999999999999</v>
+      </c>
+      <c r="C12">
+        <v>20.64</v>
+      </c>
+      <c r="D12">
+        <v>5.34</v>
+      </c>
+      <c r="E12">
+        <v>10.22666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1.8</v>
+      </c>
+      <c r="C13">
+        <v>14.02</v>
+      </c>
+      <c r="D13">
+        <v>6.609999999999999</v>
+      </c>
+      <c r="E13">
+        <v>7.476666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1.77</v>
+      </c>
+      <c r="C14">
+        <v>13.1</v>
+      </c>
+      <c r="D14">
+        <v>8.65</v>
+      </c>
+      <c r="E14">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>5.87</v>
+      </c>
+      <c r="C15">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D15">
+        <v>6.199999999999999</v>
+      </c>
+      <c r="E15">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>3.83</v>
+      </c>
+      <c r="C16">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>1.635</v>
-      </c>
-      <c r="C7">
-        <v>3.45</v>
-      </c>
-      <c r="D7">
-        <v>2.045</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5.895</v>
-      </c>
-      <c r="C8">
-        <v>10.525</v>
-      </c>
-      <c r="D8">
-        <v>5.645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>4.16</v>
-      </c>
-      <c r="C9">
-        <v>5.615</v>
-      </c>
-      <c r="D9">
-        <v>4.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0.2</v>
-      </c>
-      <c r="C10">
-        <v>0.455</v>
-      </c>
-      <c r="D10">
-        <v>0.225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>3.8</v>
-      </c>
-      <c r="C11">
-        <v>7.390000000000001</v>
-      </c>
-      <c r="D11">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>2.35</v>
-      </c>
-      <c r="C12">
-        <v>10.32</v>
-      </c>
-      <c r="D12">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0.9</v>
-      </c>
-      <c r="C13">
-        <v>7.01</v>
-      </c>
-      <c r="D13">
-        <v>3.305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0.885</v>
-      </c>
-      <c r="C14">
-        <v>6.55</v>
-      </c>
-      <c r="D14">
-        <v>4.325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>2.935</v>
-      </c>
-      <c r="C15">
-        <v>4.15</v>
-      </c>
-      <c r="D15">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>1.915</v>
-      </c>
-      <c r="C16">
-        <v>4.5</v>
-      </c>
       <c r="D16">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>4.08</v>
+      </c>
+      <c r="E16">
+        <v>5.636666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0.255</v>
+        <v>0.51</v>
       </c>
       <c r="C17">
-        <v>4.524999999999999</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="D17">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>6.68</v>
+      </c>
+      <c r="E17">
+        <v>5.413333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>3.46</v>
+        <v>6.92</v>
       </c>
       <c r="C18">
-        <v>7.81</v>
+        <v>15.62</v>
       </c>
       <c r="D18">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>6.44</v>
+      </c>
+      <c r="E18">
+        <v>9.659999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>1.435</v>
+        <v>2.87</v>
       </c>
       <c r="C19">
-        <v>10.375</v>
+        <v>20.75</v>
       </c>
       <c r="D19">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="E19">
+        <v>10.74666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.33</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="C20">
-        <v>3.265</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="D20">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>3.48</v>
+      </c>
+      <c r="E20">
+        <v>3.556666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0.47</v>
       </c>
       <c r="C21">
-        <v>3.77</v>
+        <v>7.54</v>
       </c>
       <c r="D21">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>2.04</v>
+      </c>
+      <c r="E21">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.91</v>
+        <v>1.82</v>
       </c>
       <c r="C22">
-        <v>6.555</v>
+        <v>13.11</v>
       </c>
       <c r="D22">
-        <v>4.775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="E22">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>2.685</v>
+        <v>5.369999999999999</v>
       </c>
       <c r="C23">
-        <v>4.165</v>
+        <v>8.33</v>
       </c>
       <c r="D23">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>5.8</v>
+      </c>
+      <c r="E23">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>2.17</v>
+        <v>4.34</v>
       </c>
       <c r="C24">
-        <v>5.025</v>
+        <v>10.05</v>
       </c>
       <c r="D24">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>7.1</v>
+      </c>
+      <c r="E24">
+        <v>7.163333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>1.995</v>
+        <v>3.99</v>
       </c>
       <c r="C25">
-        <v>5.69</v>
+        <v>11.38</v>
       </c>
       <c r="D25">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>6.46</v>
+      </c>
+      <c r="E25">
+        <v>7.276666666666666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.9350000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="C26">
-        <v>4.145</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D26">
-        <v>1.415</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>2.83</v>
+      </c>
+      <c r="E26">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>0.29</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="C27">
-        <v>5.35</v>
+        <v>10.7</v>
       </c>
       <c r="D27">
-        <v>3.975</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>7.949999999999999</v>
+      </c>
+      <c r="E27">
+        <v>6.409999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.655</v>
+        <v>1.31</v>
       </c>
       <c r="C28">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="D28">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>2.56</v>
+      </c>
+      <c r="E28">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>1.105</v>
+        <v>2.21</v>
       </c>
       <c r="C29">
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
       <c r="D29">
-        <v>1.715</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>3.43</v>
+      </c>
+      <c r="E29">
+        <v>7.713333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.515</v>
+        <v>1.03</v>
       </c>
       <c r="C30">
-        <v>2.905</v>
+        <v>5.81</v>
       </c>
       <c r="D30">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>5.34</v>
+      </c>
+      <c r="E30">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>2.175</v>
+        <v>4.35</v>
       </c>
       <c r="C31">
-        <v>3.395</v>
+        <v>6.789999999999999</v>
       </c>
       <c r="D31">
-        <v>1.985</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>3.97</v>
+      </c>
+      <c r="E31">
+        <v>5.036666666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>3.01</v>
+        <v>6.02</v>
       </c>
       <c r="C32">
-        <v>4.93</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D32">
-        <v>3.095</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>6.19</v>
+      </c>
+      <c r="E32">
+        <v>7.356666666666666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>1.49</v>
+        <v>2.98</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="D33">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>3.08</v>
+      </c>
+      <c r="E33">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>1.18</v>
+        <v>2.36</v>
       </c>
       <c r="C34">
-        <v>4.49</v>
+        <v>8.98</v>
       </c>
       <c r="D34">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>4.08</v>
+      </c>
+      <c r="E34">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0.13</v>
       </c>
       <c r="C35">
-        <v>2.455</v>
+        <v>4.91</v>
       </c>
       <c r="D35">
-        <v>1.385</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>2.77</v>
+      </c>
+      <c r="E35">
+        <v>2.603333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.445</v>
+        <v>0.89</v>
       </c>
       <c r="C36">
-        <v>2.695</v>
+        <v>5.39</v>
       </c>
       <c r="D36">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>5.779999999999999</v>
+      </c>
+      <c r="E36">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0.31</v>
@@ -1338,1514 +1449,1841 @@
       <c r="D37">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.415</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="C38">
-        <v>5.69</v>
+        <v>11.38</v>
       </c>
       <c r="D38">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>8.16</v>
+      </c>
+      <c r="E38">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>2.86</v>
+        <v>5.720000000000001</v>
       </c>
       <c r="C39">
-        <v>6.745</v>
+        <v>13.49</v>
       </c>
       <c r="D39">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>6.58</v>
+      </c>
+      <c r="E39">
+        <v>8.596666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.6950000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="C40">
-        <v>5.045</v>
+        <v>10.09</v>
       </c>
       <c r="D40">
-        <v>4.045</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>8.09</v>
+      </c>
+      <c r="E40">
+        <v>6.523333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>0.14</v>
       </c>
       <c r="C41">
-        <v>1.27</v>
+        <v>2.54</v>
       </c>
       <c r="D41">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>1.94</v>
+      </c>
+      <c r="E41">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.8400000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="C42">
-        <v>3.995</v>
+        <v>7.99</v>
       </c>
       <c r="D42">
-        <v>2.115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>4.23</v>
+      </c>
+      <c r="E42">
+        <v>4.633333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>4.88</v>
+        <v>9.76</v>
       </c>
       <c r="C43">
-        <v>16.645</v>
+        <v>33.29</v>
       </c>
       <c r="D43">
-        <v>9.140000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>18.28</v>
+      </c>
+      <c r="E43">
+        <v>20.44333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>1.325</v>
+        <v>2.65</v>
       </c>
       <c r="C44">
-        <v>12.93</v>
+        <v>25.86</v>
       </c>
       <c r="D44">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>11.64</v>
+      </c>
+      <c r="E44">
+        <v>13.38333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>1.815</v>
+        <v>3.63</v>
       </c>
       <c r="C45">
-        <v>4.79</v>
+        <v>9.58</v>
       </c>
       <c r="D45">
-        <v>2.575</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>5.15</v>
+      </c>
+      <c r="E45">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>2.145</v>
+        <v>4.29</v>
       </c>
       <c r="C46">
-        <v>6.44</v>
+        <v>12.88</v>
       </c>
       <c r="D46">
-        <v>1.605</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>3.21</v>
+      </c>
+      <c r="E46">
+        <v>6.793333333333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>1.38</v>
+        <v>2.76</v>
       </c>
       <c r="C47">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="D47">
-        <v>2.985</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>5.970000000000001</v>
+      </c>
+      <c r="E47">
+        <v>4.076666666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.8400000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="C48">
-        <v>1.795</v>
+        <v>3.59</v>
       </c>
       <c r="D48">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>2.46</v>
+      </c>
+      <c r="E48">
+        <v>2.576666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.425</v>
+        <v>0.85</v>
       </c>
       <c r="C49">
-        <v>3.64</v>
+        <v>7.28</v>
       </c>
       <c r="D49">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>7.38</v>
+      </c>
+      <c r="E49">
+        <v>5.170000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>1.795</v>
+        <v>3.59</v>
       </c>
       <c r="C50">
-        <v>7.025</v>
+        <v>14.05</v>
       </c>
       <c r="D50">
-        <v>3.665</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>7.33</v>
+      </c>
+      <c r="E50">
+        <v>8.323333333333332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.8600000000000001</v>
+        <v>1.72</v>
       </c>
       <c r="C51">
-        <v>10.2</v>
+        <v>20.4</v>
       </c>
       <c r="D51">
-        <v>5.109999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>10.22</v>
+      </c>
+      <c r="E51">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0.26</v>
       </c>
       <c r="C52">
-        <v>2.945</v>
+        <v>5.890000000000001</v>
       </c>
       <c r="D52">
+        <v>4.66</v>
+      </c>
+      <c r="E52">
+        <v>3.603333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>1.27</v>
+      </c>
+      <c r="C53">
+        <v>2.63</v>
+      </c>
+      <c r="D53">
+        <v>1.34</v>
+      </c>
+      <c r="E53">
+        <v>1.746666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>0.88</v>
+      </c>
+      <c r="C54">
+        <v>21.27</v>
+      </c>
+      <c r="D54">
+        <v>1.2</v>
+      </c>
+      <c r="E54">
+        <v>7.783333333333332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>1.36</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1.8</v>
+      </c>
+      <c r="E55">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>3.01</v>
+      </c>
+      <c r="C56">
+        <v>5.74</v>
+      </c>
+      <c r="D56">
+        <v>11.55</v>
+      </c>
+      <c r="E56">
+        <v>6.766666666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>1.72</v>
+      </c>
+      <c r="C57">
+        <v>9.16</v>
+      </c>
+      <c r="D57">
+        <v>2.59</v>
+      </c>
+      <c r="E57">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>2.94</v>
+      </c>
+      <c r="C58">
+        <v>4.45</v>
+      </c>
+      <c r="D58">
+        <v>3.87</v>
+      </c>
+      <c r="E58">
+        <v>3.753333333333334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>3.94</v>
+      </c>
+      <c r="C59">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="D59">
+        <v>4.33</v>
+      </c>
+      <c r="E59">
+        <v>5.876666666666666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>0.88</v>
+      </c>
+      <c r="C60">
+        <v>4.82</v>
+      </c>
+      <c r="D60">
+        <v>2.14</v>
+      </c>
+      <c r="E60">
+        <v>2.613333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>8.23</v>
+      </c>
+      <c r="C61">
+        <v>13.72</v>
+      </c>
+      <c r="D61">
+        <v>5.63</v>
+      </c>
+      <c r="E61">
+        <v>9.193333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>1.48</v>
+      </c>
+      <c r="C62">
+        <v>16.36</v>
+      </c>
+      <c r="D62">
+        <v>7.83</v>
+      </c>
+      <c r="E62">
+        <v>8.556666666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>4.73</v>
+      </c>
+      <c r="C63">
+        <v>8.34</v>
+      </c>
+      <c r="D63">
+        <v>3.3</v>
+      </c>
+      <c r="E63">
+        <v>5.456666666666667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>0.97</v>
+      </c>
+      <c r="C64">
+        <v>3.15</v>
+      </c>
+      <c r="D64">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
-        <v>0.635</v>
-      </c>
-      <c r="C53">
-        <v>1.315</v>
-      </c>
-      <c r="D53">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54">
-        <v>0.44</v>
-      </c>
-      <c r="C54">
-        <v>10.635</v>
-      </c>
-      <c r="D54">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
+      <c r="E64">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>3.72</v>
+      </c>
+      <c r="C65">
+        <v>10.34</v>
+      </c>
+      <c r="D65">
+        <v>4.87</v>
+      </c>
+      <c r="E65">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>1.32</v>
+      </c>
+      <c r="C66">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="D66">
+        <v>7.699999999999999</v>
+      </c>
+      <c r="E66">
+        <v>4.773333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56">
-        <v>1.505</v>
-      </c>
-      <c r="C56">
-        <v>2.87</v>
-      </c>
-      <c r="D56">
-        <v>5.775</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57">
-        <v>0.86</v>
-      </c>
-      <c r="C57">
-        <v>4.58</v>
-      </c>
-      <c r="D57">
-        <v>1.295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58">
-        <v>1.47</v>
-      </c>
-      <c r="C58">
-        <v>2.225</v>
-      </c>
-      <c r="D58">
-        <v>1.935</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59">
-        <v>1.97</v>
-      </c>
-      <c r="C59">
-        <v>4.68</v>
-      </c>
-      <c r="D59">
-        <v>2.165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60">
-        <v>0.44</v>
-      </c>
-      <c r="C60">
-        <v>2.41</v>
-      </c>
-      <c r="D60">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61">
-        <v>4.115</v>
-      </c>
-      <c r="C61">
-        <v>6.86</v>
-      </c>
-      <c r="D61">
-        <v>2.815</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62">
-        <v>0.74</v>
-      </c>
-      <c r="C62">
-        <v>8.18</v>
-      </c>
-      <c r="D62">
-        <v>3.915</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63">
-        <v>2.365</v>
-      </c>
-      <c r="C63">
-        <v>4.17</v>
-      </c>
-      <c r="D63">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64">
-        <v>0.485</v>
-      </c>
-      <c r="C64">
-        <v>1.575</v>
-      </c>
-      <c r="D64">
-        <v>1.165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65">
-        <v>1.86</v>
-      </c>
-      <c r="C65">
-        <v>5.17</v>
-      </c>
-      <c r="D65">
-        <v>2.435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66">
-        <v>0.6599999999999999</v>
-      </c>
-      <c r="C66">
-        <v>2.65</v>
-      </c>
-      <c r="D66">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67">
-        <v>0.45</v>
-      </c>
       <c r="C67">
-        <v>2.705</v>
+        <v>5.41</v>
       </c>
       <c r="D67">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>5.4</v>
+      </c>
+      <c r="E67">
+        <v>3.903333333333334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>1.08</v>
+        <v>2.16</v>
       </c>
       <c r="C68">
-        <v>2.045</v>
+        <v>4.09</v>
       </c>
       <c r="D68">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>3.06</v>
+      </c>
+      <c r="E68">
+        <v>3.103333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>2.19</v>
+        <v>4.38</v>
       </c>
       <c r="C69">
-        <v>4.42</v>
+        <v>8.84</v>
       </c>
       <c r="D69">
-        <v>3.575</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>7.15</v>
+      </c>
+      <c r="E69">
+        <v>6.789999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0.25</v>
       </c>
       <c r="C70">
-        <v>0.925</v>
+        <v>1.85</v>
       </c>
       <c r="D70">
-        <v>0.705</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>1.41</v>
+      </c>
+      <c r="E70">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>2.975</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="C71">
-        <v>8.535</v>
+        <v>17.07</v>
       </c>
       <c r="D71">
-        <v>4.915</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>9.83</v>
+      </c>
+      <c r="E71">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
         <v>0.16</v>
       </c>
       <c r="C72">
-        <v>1.675</v>
+        <v>3.35</v>
       </c>
       <c r="D72">
-        <v>0.555</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>1.11</v>
+      </c>
+      <c r="E72">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>1.015</v>
+        <v>2.03</v>
       </c>
       <c r="C73">
-        <v>1.255</v>
+        <v>2.51</v>
       </c>
       <c r="D73">
-        <v>13.795</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>27.59</v>
+      </c>
+      <c r="E73">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>2.83</v>
+        <v>5.66</v>
       </c>
       <c r="C74">
-        <v>4.515000000000001</v>
+        <v>9.030000000000001</v>
       </c>
       <c r="D74">
-        <v>2.785</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>5.57</v>
+      </c>
+      <c r="E74">
+        <v>6.753333333333334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>2.12</v>
+        <v>4.24</v>
       </c>
       <c r="C75">
-        <v>4.14</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D75">
-        <v>2.085</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>4.17</v>
+      </c>
+      <c r="E75">
+        <v>5.563333333333333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>2.31</v>
+        <v>4.619999999999999</v>
       </c>
       <c r="C76">
-        <v>6.185</v>
+        <v>12.37</v>
       </c>
       <c r="D76">
-        <v>3.455</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>6.91</v>
+      </c>
+      <c r="E76">
+        <v>7.966666666666666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>3.235</v>
+        <v>6.470000000000001</v>
       </c>
       <c r="C77">
-        <v>6.76</v>
+        <v>13.52</v>
       </c>
       <c r="D77">
-        <v>4.52</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="E77">
+        <v>9.676666666666668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>1.14</v>
+        <v>2.28</v>
       </c>
       <c r="C78">
-        <v>5.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="D78">
-        <v>2.495</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>4.99</v>
+      </c>
+      <c r="E78">
+        <v>5.890000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="C79">
-        <v>1.92</v>
+        <v>3.84</v>
       </c>
       <c r="D79">
-        <v>0.8350000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>1.67</v>
+      </c>
+      <c r="E79">
+        <v>2.143333333333333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>1.56</v>
+        <v>3.12</v>
       </c>
       <c r="C80">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="D80">
-        <v>2.045</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>4.09</v>
+      </c>
+      <c r="E80">
+        <v>3.336666666666666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>1.115</v>
+        <v>2.23</v>
       </c>
       <c r="C81">
-        <v>8.57</v>
+        <v>17.14</v>
       </c>
       <c r="D81">
-        <v>2.345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>4.69</v>
+      </c>
+      <c r="E81">
+        <v>8.020000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>1.005</v>
+        <v>2.01</v>
       </c>
       <c r="C82">
-        <v>3.125</v>
+        <v>6.25</v>
       </c>
       <c r="D82">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>5.24</v>
+      </c>
+      <c r="E82">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.915</v>
+        <v>1.83</v>
       </c>
       <c r="C83">
-        <v>4.81</v>
+        <v>9.620000000000001</v>
       </c>
       <c r="D83">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>5.220000000000001</v>
+      </c>
+      <c r="E83">
+        <v>5.556666666666668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.875</v>
+        <v>1.75</v>
       </c>
       <c r="C84">
-        <v>8.51</v>
+        <v>17.02</v>
       </c>
       <c r="D84">
-        <v>2.715</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>5.43</v>
+      </c>
+      <c r="E84">
+        <v>8.066666666666666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>3.27</v>
+        <v>6.54</v>
       </c>
       <c r="D85">
-        <v>2.385</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>4.77</v>
+      </c>
+      <c r="E85">
+        <v>4.103333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>3.44</v>
+        <v>6.88</v>
       </c>
       <c r="C86">
-        <v>5.375</v>
+        <v>10.75</v>
       </c>
       <c r="D86">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>7.26</v>
+      </c>
+      <c r="E86">
+        <v>8.296666666666667</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>2.13</v>
+        <v>4.26</v>
       </c>
       <c r="C87">
-        <v>7.99</v>
+        <v>15.98</v>
       </c>
       <c r="D87">
-        <v>2.625</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>5.25</v>
+      </c>
+      <c r="E87">
+        <v>8.496666666666668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>3.465</v>
+        <v>6.93</v>
       </c>
       <c r="C88">
-        <v>6.72</v>
+        <v>13.44</v>
       </c>
       <c r="D88">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>7.039999999999999</v>
+      </c>
+      <c r="E88">
+        <v>9.136666666666665</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.8300000000000001</v>
+        <v>1.66</v>
       </c>
       <c r="C89">
-        <v>1.94</v>
+        <v>3.88</v>
       </c>
       <c r="D89">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>4.32</v>
+      </c>
+      <c r="E89">
+        <v>3.286666666666667</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>2.19</v>
+        <v>4.38</v>
       </c>
       <c r="D90">
-        <v>4.585</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>9.17</v>
+      </c>
+      <c r="E90">
+        <v>4.850000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.365</v>
+        <v>0.73</v>
       </c>
       <c r="C91">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="D91">
-        <v>1.555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>3.11</v>
+      </c>
+      <c r="E91">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>2.225</v>
+        <v>4.45</v>
       </c>
       <c r="C92">
-        <v>5.585</v>
+        <v>11.17</v>
       </c>
       <c r="D92">
-        <v>7.855</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>15.71</v>
+      </c>
+      <c r="E92">
+        <v>10.44333333333333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="C93">
-        <v>1.655</v>
+        <v>3.31</v>
       </c>
       <c r="D93">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>6.8</v>
+      </c>
+      <c r="E93">
+        <v>3.716666666666666</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>2.835</v>
+        <v>5.67</v>
       </c>
       <c r="C94">
-        <v>8.475</v>
+        <v>16.95</v>
       </c>
       <c r="D94">
-        <v>5.415</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>10.83</v>
+      </c>
+      <c r="E94">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>2.805</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="C95">
-        <v>4.905</v>
+        <v>9.81</v>
       </c>
       <c r="D95">
-        <v>3.315</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>6.63</v>
+      </c>
+      <c r="E95">
+        <v>7.350000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0.38</v>
       </c>
       <c r="C96">
-        <v>1.385</v>
+        <v>2.77</v>
       </c>
       <c r="D96">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>3.76</v>
+      </c>
+      <c r="E96">
+        <v>2.303333333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>2.09</v>
+        <v>4.18</v>
       </c>
       <c r="C97">
-        <v>3.62</v>
+        <v>7.24</v>
       </c>
       <c r="D97">
-        <v>1.725</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>3.45</v>
+      </c>
+      <c r="E97">
+        <v>4.956666666666667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>1.62</v>
+        <v>3.24</v>
       </c>
       <c r="C98">
-        <v>2.475</v>
+        <v>4.95</v>
       </c>
       <c r="D98">
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>15.96</v>
+      </c>
+      <c r="E98">
+        <v>8.049999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99">
         <v>4.08</v>
       </c>
       <c r="D99">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>1.1</v>
+      </c>
+      <c r="E99">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.96</v>
+        <v>1.92</v>
       </c>
       <c r="C100">
-        <v>2.835</v>
+        <v>5.67</v>
       </c>
       <c r="D100">
-        <v>1.365</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>2.73</v>
+      </c>
+      <c r="E100">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>1.025</v>
+        <v>2.05</v>
       </c>
       <c r="C101">
-        <v>2.24</v>
+        <v>4.48</v>
       </c>
       <c r="D101">
-        <v>2.185</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>4.37</v>
+      </c>
+      <c r="E101">
+        <v>3.633333333333333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0.03</v>
       </c>
       <c r="C102">
-        <v>1.49</v>
+        <v>2.98</v>
       </c>
       <c r="D102">
-        <v>1.455</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>2.91</v>
+      </c>
+      <c r="E102">
+        <v>1.973333333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
-        <v>0.7849999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="C103">
-        <v>2.535</v>
+        <v>5.07</v>
       </c>
       <c r="D103">
-        <v>2.815</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>5.63</v>
+      </c>
+      <c r="E103">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
-        <v>0.8500000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="C104">
-        <v>3.98</v>
+        <v>7.96</v>
       </c>
       <c r="D104">
-        <v>4.165</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>8.33</v>
+      </c>
+      <c r="E104">
+        <v>5.996666666666667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B105">
-        <v>1.56</v>
+        <v>3.12</v>
       </c>
       <c r="C105">
-        <v>8.73</v>
+        <v>17.46</v>
       </c>
       <c r="D105">
-        <v>7.685</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>15.37</v>
+      </c>
+      <c r="E105">
+        <v>11.98333333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B106">
-        <v>2.565</v>
+        <v>5.13</v>
       </c>
       <c r="C106">
-        <v>6.95</v>
+        <v>13.9</v>
       </c>
       <c r="D106">
-        <v>4.435</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E106">
+        <v>9.299999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B107">
-        <v>2.07</v>
+        <v>4.14</v>
       </c>
       <c r="C107">
-        <v>2.635</v>
+        <v>5.27</v>
       </c>
       <c r="D107">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>3.96</v>
+      </c>
+      <c r="E107">
+        <v>4.456666666666667</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B108">
         <v>0.99</v>
       </c>
       <c r="C108">
-        <v>2.57</v>
+        <v>5.14</v>
       </c>
       <c r="D108">
-        <v>4.154999999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="E108">
+        <v>4.813333333333333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B109">
+        <v>4.58</v>
+      </c>
+      <c r="C109">
+        <v>12.89</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>7.823333333333333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="C110">
+        <v>23.61</v>
+      </c>
+      <c r="D110">
+        <v>11.99</v>
+      </c>
+      <c r="E110">
+        <v>15.02333333333333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>0.62</v>
+      </c>
+      <c r="C111">
+        <v>1.63</v>
+      </c>
+      <c r="D111">
+        <v>0.65</v>
+      </c>
+      <c r="E111">
+        <v>0.9666666666666667</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>1.31</v>
+      </c>
+      <c r="C112">
+        <v>2.73</v>
+      </c>
+      <c r="D112">
+        <v>3.86</v>
+      </c>
+      <c r="E112">
+        <v>2.633333333333333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>2.72</v>
+      </c>
+      <c r="C113">
+        <v>14.74</v>
+      </c>
+      <c r="D113">
+        <v>9.41</v>
+      </c>
+      <c r="E113">
+        <v>8.956666666666667</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>5.38</v>
+      </c>
+      <c r="C114">
+        <v>9.23</v>
+      </c>
+      <c r="D114">
+        <v>5.18</v>
+      </c>
+      <c r="E114">
+        <v>6.596666666666667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>0.65</v>
+      </c>
+      <c r="C115">
+        <v>3.93</v>
+      </c>
+      <c r="D115">
+        <v>3.62</v>
+      </c>
+      <c r="E115">
+        <v>2.733333333333333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>2.11</v>
+      </c>
+      <c r="C116">
+        <v>3.05</v>
+      </c>
+      <c r="D116">
+        <v>2.87</v>
+      </c>
+      <c r="E116">
+        <v>2.676666666666667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>2.62</v>
+      </c>
+      <c r="C117">
+        <v>6.39</v>
+      </c>
+      <c r="D117">
+        <v>2.39</v>
+      </c>
+      <c r="E117">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>5.8</v>
+      </c>
+      <c r="C118">
+        <v>12.29</v>
+      </c>
+      <c r="D118">
+        <v>7.949999999999999</v>
+      </c>
+      <c r="E118">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>4.66</v>
+      </c>
+      <c r="C119">
+        <v>8.99</v>
+      </c>
+      <c r="D119">
+        <v>10.76</v>
+      </c>
+      <c r="E119">
+        <v>8.136666666666667</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>5.11</v>
+      </c>
+      <c r="C120">
+        <v>7.890000000000001</v>
+      </c>
+      <c r="D120">
+        <v>2.45</v>
+      </c>
+      <c r="E120">
+        <v>5.149999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>5.01</v>
+      </c>
+      <c r="C121">
+        <v>7.04</v>
+      </c>
+      <c r="D121">
+        <v>5.86</v>
+      </c>
+      <c r="E121">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>0.67</v>
+      </c>
+      <c r="C122">
+        <v>7.039999999999999</v>
+      </c>
+      <c r="D122">
+        <v>3.53</v>
+      </c>
+      <c r="E122">
+        <v>3.746666666666666</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>2.2</v>
+      </c>
+      <c r="C123">
+        <v>12.28</v>
+      </c>
+      <c r="D123">
+        <v>3.12</v>
+      </c>
+      <c r="E123">
+        <v>5.866666666666667</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>9.26</v>
+      </c>
+      <c r="C124">
+        <v>21.54</v>
+      </c>
+      <c r="D124">
+        <v>7.68</v>
+      </c>
+      <c r="E124">
+        <v>12.82666666666667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>3.66</v>
+      </c>
+      <c r="C125">
+        <v>17.03</v>
+      </c>
+      <c r="D125">
+        <v>5.79</v>
+      </c>
+      <c r="E125">
+        <v>8.826666666666666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>0.67</v>
+      </c>
+      <c r="C126">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="D126">
+        <v>0.78</v>
+      </c>
+      <c r="E126">
+        <v>0.7833333333333332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>0.58</v>
+      </c>
+      <c r="C127">
         <v>2.29</v>
       </c>
-      <c r="C109">
-        <v>6.445</v>
-      </c>
-      <c r="D109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110">
-        <v>4.735</v>
-      </c>
-      <c r="C110">
-        <v>11.805</v>
-      </c>
-      <c r="D110">
-        <v>5.994999999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111">
-        <v>0.31</v>
-      </c>
-      <c r="C111">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="D111">
-        <v>0.325</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112">
-        <v>0.655</v>
-      </c>
-      <c r="C112">
-        <v>1.365</v>
-      </c>
-      <c r="D112">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113">
-        <v>1.36</v>
-      </c>
-      <c r="C113">
-        <v>7.370000000000001</v>
-      </c>
-      <c r="D113">
-        <v>4.705</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114">
-        <v>2.69</v>
-      </c>
-      <c r="C114">
-        <v>4.615</v>
-      </c>
-      <c r="D114">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115">
-        <v>0.325</v>
-      </c>
-      <c r="C115">
-        <v>1.965</v>
-      </c>
-      <c r="D115">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116">
-        <v>1.055</v>
-      </c>
-      <c r="C116">
-        <v>1.525</v>
-      </c>
-      <c r="D116">
-        <v>1.435</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117">
-        <v>1.31</v>
-      </c>
-      <c r="C117">
-        <v>3.195</v>
-      </c>
-      <c r="D117">
-        <v>1.195</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118">
-        <v>2.9</v>
-      </c>
-      <c r="C118">
-        <v>6.145</v>
-      </c>
-      <c r="D118">
-        <v>3.975</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119">
-        <v>2.33</v>
-      </c>
-      <c r="C119">
-        <v>4.495</v>
-      </c>
-      <c r="D119">
-        <v>5.38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120">
-        <v>2.555</v>
-      </c>
-      <c r="C120">
-        <v>3.945</v>
-      </c>
-      <c r="D120">
-        <v>1.225</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121">
-        <v>2.505</v>
-      </c>
-      <c r="C121">
-        <v>3.52</v>
-      </c>
-      <c r="D121">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122">
-        <v>0.335</v>
-      </c>
-      <c r="C122">
-        <v>3.52</v>
-      </c>
-      <c r="D122">
-        <v>1.765</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123">
-        <v>1.1</v>
-      </c>
-      <c r="C123">
-        <v>6.14</v>
-      </c>
-      <c r="D123">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124">
-        <v>4.63</v>
-      </c>
-      <c r="C124">
-        <v>10.77</v>
-      </c>
-      <c r="D124">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125">
-        <v>1.83</v>
-      </c>
-      <c r="C125">
-        <v>8.515000000000001</v>
-      </c>
-      <c r="D125">
-        <v>2.895</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B126">
-        <v>0.335</v>
-      </c>
-      <c r="C126">
-        <v>0.45</v>
-      </c>
-      <c r="D126">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127">
-        <v>0.29</v>
-      </c>
-      <c r="C127">
-        <v>1.145</v>
-      </c>
       <c r="D127">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>4.26</v>
+      </c>
+      <c r="E127">
+        <v>2.376666666666666</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B128">
-        <v>0.605</v>
+        <v>1.21</v>
       </c>
       <c r="C128">
-        <v>1.505</v>
+        <v>3.01</v>
       </c>
       <c r="D128">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>2.25</v>
+      </c>
+      <c r="E128">
+        <v>2.156666666666667</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B129">
-        <v>1.405</v>
+        <v>2.81</v>
       </c>
       <c r="C129">
-        <v>2.39</v>
+        <v>4.78</v>
       </c>
       <c r="D129">
-        <v>2.605</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>5.21</v>
+      </c>
+      <c r="E129">
+        <v>4.266666666666667</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B130">
-        <v>1.53</v>
+        <v>3.06</v>
       </c>
       <c r="C130">
-        <v>12.505</v>
+        <v>25.01</v>
       </c>
       <c r="D130">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>12.2</v>
+      </c>
+      <c r="E130">
+        <v>13.42333333333333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B131">
-        <v>1.32</v>
+        <v>2.64</v>
       </c>
       <c r="C131">
-        <v>2.53</v>
+        <v>5.06</v>
       </c>
       <c r="D131">
-        <v>1.645</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>3.29</v>
+      </c>
+      <c r="E131">
+        <v>3.663333333333334</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B132">
-        <v>1.73</v>
+        <v>3.46</v>
       </c>
       <c r="C132">
-        <v>2.945</v>
+        <v>5.89</v>
       </c>
       <c r="D132">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>3.58</v>
+      </c>
+      <c r="E132">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B133">
-        <v>2.695</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C133">
-        <v>2.425</v>
+        <v>4.85</v>
       </c>
       <c r="D133">
+        <v>5.319999999999999</v>
+      </c>
+      <c r="E133">
+        <v>5.186666666666667</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134">
+        <v>1.64</v>
+      </c>
+      <c r="C134">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="D134">
+        <v>13.63</v>
+      </c>
+      <c r="E134">
+        <v>7.933333333333333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>4.29</v>
+      </c>
+      <c r="C135">
+        <v>15.27</v>
+      </c>
+      <c r="D135">
+        <v>7.06</v>
+      </c>
+      <c r="E135">
+        <v>8.873333333333333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>2.45</v>
+      </c>
+      <c r="C136">
+        <v>4.38</v>
+      </c>
+      <c r="D136">
+        <v>3.39</v>
+      </c>
+      <c r="E136">
+        <v>3.406666666666667</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>3.55</v>
+      </c>
+      <c r="C137">
+        <v>8.73</v>
+      </c>
+      <c r="D137">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134">
-        <v>0.82</v>
-      </c>
-      <c r="C134">
-        <v>4.265</v>
-      </c>
-      <c r="D134">
-        <v>6.815</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135">
-        <v>2.145</v>
-      </c>
-      <c r="C135">
-        <v>7.635</v>
-      </c>
-      <c r="D135">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B136">
-        <v>1.225</v>
-      </c>
-      <c r="C136">
-        <v>2.19</v>
-      </c>
-      <c r="D136">
-        <v>1.695</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B137">
-        <v>1.775</v>
-      </c>
-      <c r="C137">
-        <v>4.365</v>
-      </c>
-      <c r="D137">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B138">
-        <v>3.03</v>
+        <v>6.06</v>
       </c>
       <c r="C138">
-        <v>5.545</v>
+        <v>11.09</v>
       </c>
       <c r="D138">
-        <v>2.895</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>5.79</v>
+      </c>
+      <c r="E138">
+        <v>7.646666666666666</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B139">
-        <v>1.18</v>
+        <v>2.36</v>
       </c>
       <c r="C139">
-        <v>5.380000000000001</v>
+        <v>10.76</v>
       </c>
       <c r="D139">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>6.84</v>
+      </c>
+      <c r="E139">
+        <v>6.653333333333333</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B140">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="C140">
-        <v>1.66</v>
+        <v>3.32</v>
       </c>
       <c r="D140">
-        <v>0.5649999999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>1.13</v>
+      </c>
+      <c r="E140">
+        <v>1.643333333333333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B141">
-        <v>0.07500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="C141">
-        <v>2.025</v>
+        <v>4.05</v>
       </c>
       <c r="D141">
-        <v>1.245</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>2.49</v>
+      </c>
+      <c r="E141">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B142">
-        <v>0.6950000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="C142">
-        <v>4.055</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D142">
-        <v>1.785</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>3.57</v>
+      </c>
+      <c r="E142">
+        <v>4.356666666666666</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B143">
-        <v>0.9199999999999999</v>
+        <v>1.84</v>
       </c>
       <c r="C143">
-        <v>1.53</v>
+        <v>3.06</v>
       </c>
       <c r="D143">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>3.22</v>
+      </c>
+      <c r="E143">
+        <v>2.706666666666667</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B144">
-        <v>1.17</v>
+        <v>2.34</v>
       </c>
       <c r="C144">
-        <v>5.14</v>
+        <v>10.28</v>
       </c>
       <c r="D144">
-        <v>4.075</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>8.15</v>
+      </c>
+      <c r="E144">
+        <v>6.923333333333333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B145">
-        <v>0.285</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="C145">
-        <v>1.88</v>
+        <v>3.76</v>
       </c>
       <c r="D145">
-        <v>0.925</v>
+        <v>1.85</v>
+      </c>
+      <c r="E145">
+        <v>2.06</v>
       </c>
     </row>
   </sheetData>
